--- a/tareas - copia.xlsx
+++ b/tareas - copia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProtoQSAR\PROJECTS_AND_CLIENTS\IRB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrique\Documents\GitHub\IRB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C08913-5E9D-491E-A2CD-E752F9E19578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5094FE-8E2C-425C-AB2D-8FCBFEFE3B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-60" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="1560" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="152">
   <si>
     <t>Structural Clustering</t>
   </si>
@@ -517,6 +517,21 @@
   </si>
   <si>
     <t>TOX_MRDD_DeepPK</t>
+  </si>
+  <si>
+    <t>cyp1a2_inhibitor_DeepPK</t>
+  </si>
+  <si>
+    <t>cyp3a4_inhibitor_DeepPK</t>
+  </si>
+  <si>
+    <t>cyp2c9_inhibitor_DeepPK</t>
+  </si>
+  <si>
+    <t>cyp2c19_inhibitor_DeepPK</t>
+  </si>
+  <si>
+    <t>cyp2d6_inhibitor_DeepPK</t>
   </si>
 </sst>
 </file>
@@ -877,19 +892,19 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.88671875" customWidth="1"/>
-    <col min="2" max="2" width="38.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" customWidth="1"/>
-    <col min="7" max="7" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -906,7 +921,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -914,7 +929,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -922,12 +937,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -935,7 +950,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
@@ -943,7 +958,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>57</v>
       </c>
@@ -951,7 +966,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>58</v>
       </c>
@@ -959,22 +974,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>62</v>
       </c>
@@ -984,8 +999,11 @@
       <c r="F12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>63</v>
       </c>
@@ -995,8 +1013,11 @@
       <c r="F13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>64</v>
       </c>
@@ -1006,23 +1027,38 @@
       <c r="F14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1073,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>9</v>
       </c>
@@ -1052,7 +1088,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1067,7 +1103,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -1082,12 +1118,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1095,7 +1131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1103,7 +1139,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,7 +1147,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,7 +1155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1131,7 +1167,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,7 +1175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
@@ -1147,7 +1183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
@@ -1158,7 +1194,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
@@ -1166,7 +1202,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1180,12 +1216,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>23</v>
       </c>
@@ -1199,7 +1235,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>22</v>
       </c>
@@ -1210,7 +1246,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>21</v>
       </c>
@@ -1234,200 +1270,200 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>54</v>
       </c>
@@ -1445,24 +1481,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1480,15 +1516,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="47.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" customWidth="1"/>
     <col min="5" max="5" width="58" customWidth="1"/>
-    <col min="6" max="6" width="65.77734375" customWidth="1"/>
+    <col min="6" max="6" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>79</v>
       </c>
@@ -1502,7 +1538,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -1522,7 +1558,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1542,7 +1578,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -1562,7 +1598,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -1582,7 +1618,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -1602,7 +1638,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -1622,7 +1658,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -1642,7 +1678,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -1662,7 +1698,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -1682,7 +1718,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -1702,7 +1738,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -1722,7 +1758,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -1742,7 +1778,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -1762,7 +1798,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -1782,7 +1818,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -1802,7 +1838,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -1822,7 +1858,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>116</v>
       </c>

--- a/tareas - copia.xlsx
+++ b/tareas - copia.xlsx
@@ -211,7 +211,7 @@
     <t xml:space="preserve">carmen</t>
   </si>
   <si>
-    <t xml:space="preserve">TOX_hERG_vnnADMET, hERG_inhibitor_chEMBL</t>
+    <t xml:space="preserve">TOX_hERG_vnnADMET, hERG_inhibitor_chEMBL, DeepPK_herg_all</t>
   </si>
   <si>
     <t xml:space="preserve">Nav 1.5</t>
@@ -573,7 +573,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,12 +595,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -675,39 +669,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -963,374 +957,374 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
+      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="40.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1359,17 +1353,17 @@
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1402,7 +1396,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1579,22 +1573,22 @@
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1622,363 +1616,363 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="47.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="65.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="47.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="65.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>154</v>
       </c>
     </row>

--- a/tareas - copia.xlsx
+++ b/tareas - copia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrique\Documents\GitHub\IRB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laureano\Desktop\ProtoQSAR\CONTRATAS\IRB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1730CD95-0459-4785-B96F-21B7DA004689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B44EC34-AEEA-4684-9E68-CF8103072598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="186">
   <si>
     <t>TASKS</t>
   </si>
@@ -650,6 +650,18 @@
   </si>
   <si>
     <t>finished</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>data and descriptors</t>
+  </si>
+  <si>
+    <t>faltan desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ongoing </t>
   </si>
 </sst>
 </file>
@@ -672,7 +684,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,6 +709,24 @@
         <bgColor rgb="FFDEEBF7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -710,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -727,6 +757,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,20 +1024,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.81640625" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="28.1796875" customWidth="1"/>
+    <col min="7" max="7" width="40.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1020,7 +1054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1028,20 +1062,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1049,64 +1086,73 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>181</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="10" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>181</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>181</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1119,16 +1165,16 @@
       <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>180</v>
+      <c r="C13" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
@@ -1136,11 +1182,11 @@
       <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1153,38 +1199,45 @@
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -1199,7 +1252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -1214,7 +1267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1229,7 +1282,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>34</v>
       </c>
@@ -1244,12 +1297,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>38</v>
       </c>
@@ -1257,7 +1310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>39</v>
       </c>
@@ -1265,7 +1318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -1273,7 +1326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>41</v>
       </c>
@@ -1281,7 +1334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>42</v>
       </c>
@@ -1293,7 +1346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>44</v>
       </c>
@@ -1301,7 +1354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>45</v>
       </c>
@@ -1309,7 +1362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>46</v>
       </c>
@@ -1320,7 +1373,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>49</v>
       </c>
@@ -1331,11 +1384,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E32" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -1345,50 +1401,59 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>54</v>
       </c>
+      <c r="C34" t="s">
+        <v>182</v>
+      </c>
       <c r="E34" t="s">
         <v>55</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>57</v>
       </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
       <c r="E35" t="s">
         <v>55</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>59</v>
       </c>
+      <c r="C36" t="s">
+        <v>183</v>
+      </c>
       <c r="E36" t="s">
         <v>55</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1406,200 +1471,200 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>84</v>
       </c>
@@ -1618,24 +1683,24 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -1650,19 +1715,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.1796875" customWidth="1"/>
     <col min="5" max="5" width="58" customWidth="1"/>
-    <col min="6" max="6" width="65.7109375" customWidth="1"/>
+    <col min="6" max="6" width="65.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>4</v>
       </c>
@@ -1676,7 +1741,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -1696,7 +1761,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -1716,7 +1781,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1736,7 +1801,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -1756,7 +1821,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -1776,7 +1841,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -1796,7 +1861,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -1816,7 +1881,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -1836,7 +1901,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1856,7 +1921,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -1876,7 +1941,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -1896,7 +1961,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -1916,7 +1981,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -1936,7 +2001,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -1956,7 +2021,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -1976,7 +2041,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>140</v>
       </c>
@@ -1996,7 +2061,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -2016,7 +2081,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -2036,7 +2101,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -2056,7 +2121,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -2076,7 +2141,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -2096,7 +2161,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -2116,7 +2181,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -2124,7 +2189,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -2144,7 +2209,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -2164,7 +2229,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -2184,7 +2249,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>149</v>
       </c>

--- a/tareas - copia.xlsx
+++ b/tareas - copia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProtoQSAR\PROJECTS_AND_CLIENTS\IRB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proto\Desktop\tothexinxol\IRB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41261BE-C7B3-48C3-ADBC-EFAE5BBCD6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EEDC3C-1930-471D-A161-80479362CDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28908" yWindow="-60" windowWidth="29016" windowHeight="15816" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="278">
   <si>
     <t>TASKS</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Cav 1.2</t>
-  </si>
-  <si>
-    <t>Cav_inhibitor_chEMBL, Cav_CtoxPred</t>
   </si>
   <si>
     <t>Simón</t>
@@ -297,14 +294,642 @@
     </r>
   </si>
   <si>
+    <t>"Actividad hERG, Nav 1.5 y Cav 1.2". ¿Tenemos algo?</t>
+  </si>
+  <si>
+    <t>https://vnnadmet.bhsai.org/vnnadmet/availablemodels.xhtml</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>processed before?</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>Psub</t>
+  </si>
+  <si>
+    <t>TK_Psub_Wang</t>
+  </si>
+  <si>
+    <t>pgp_testset.sdf|pgp_trainingset.sdf</t>
+  </si>
+  <si>
+    <t>Wang, Z., Chen, Y., Liang, H., Bender, A., Glen, R. C., &amp; Yan, A. (2011). P-glycoprotein substrate models using support vector machines based on a comprehensive data set. Journal of chemical information and modeling, 51(6), 1447-1456.</t>
+  </si>
+  <si>
+    <t>yes - ONTOX - Eva</t>
+  </si>
+  <si>
+    <t>TK_Psub_Li</t>
+  </si>
+  <si>
+    <t>Pgp_Substrates.csv</t>
+  </si>
+  <si>
+    <t>ADMET evaluation in drug discovery. 13. Development of in silico prediction models for P-glycoprotein substrates. 2014 Dan Li 1 , Lei Chen, Youyong Li, Sheng Tian, Huiyong Sun, Tingjun Hou. 2014 retrieved from VNN-ADMET server</t>
+  </si>
+  <si>
+    <t>TK_Psub_livertox</t>
+  </si>
+  <si>
+    <t>PgpTRANSP_training.sdf|PgpTRANSP_test.sdf</t>
+  </si>
+  <si>
+    <t>Montanari_livetox_transporters -files in Data_Sheet_2 -</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>TK_FUB_Tonnelier</t>
+  </si>
+  <si>
+    <t>TK_FUB_Tonnelier.xlsx</t>
+  </si>
+  <si>
+    <t>Tonnelier, A., Coecke, S., &amp; Zaldívar, J. M. (2012). Screening of chemicals for human bioaccumulative potential with a physiologically based toxicokinetic model. Archives of Toxicology, 86, 393-403.</t>
+  </si>
+  <si>
+    <t>TK_FUB_Yamazaki</t>
+  </si>
+  <si>
+    <t>TK_FUB_Yamazaki.xlsx</t>
+  </si>
+  <si>
+    <t>Yamazaki, K., &amp; Kanaoka, M. (2004). Computational prediction of the plasma protein‐binding percent of diverse pharmaceutical compounds. Journal of Pharmaceutical Sciences, 93(6), 1480-1494.</t>
+  </si>
+  <si>
+    <t>TK_FUB_Lombardo</t>
+  </si>
+  <si>
+    <t>TK_FUB_Lombardo.xlsx</t>
+  </si>
+  <si>
+    <t>Lombardo, F., Obach, R. S., Shalaeva, M. Y., &amp; Gao, F. (2002). Prediction of volume of distribution values in humans for neutral and basic drugs using physicochemical measurements and plasma protein binding data. Journal of Medicinal Chemistry, 45(13), 2867-2876.</t>
+  </si>
+  <si>
+    <t>TK_FUB_Riley</t>
+  </si>
+  <si>
+    <t>TK_FUB_Riley.xlsx</t>
+  </si>
+  <si>
+    <t>Riley, R. J., McGinnity, D. F., &amp; Austin, R. P. (2005). A unified model for predicting human hepatic, metabolic clearance from in vitro intrinsic clearance data in hepatocytes and microsomes. Drug Metabolism and Disposition, 33(9), 1304-1311).</t>
+  </si>
+  <si>
+    <t>TK_FUB_Votano</t>
+  </si>
+  <si>
+    <t>TK_FUB_Votano.xlsx</t>
+  </si>
+  <si>
+    <t>Votano, J. R., Parham, M., Hall, L. M., Hall, L. H., Kier, L. B., Oloff, S., &amp; Tropsha, A. (2006). QSAR modeling of human serum protein binding with several modeling techniques utilizing structure− information representation. Journal of Medicinal Chemistry, 49(24), 7169-7181.</t>
+  </si>
+  <si>
+    <t>TK_FUB_cran</t>
+  </si>
+  <si>
+    <t>TK_FUB_cran.xlsx</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/httk/index.html </t>
+  </si>
+  <si>
+    <t>TK_FUB_Zhu</t>
+  </si>
+  <si>
+    <t>TK_FUB_Zhu.xlsx</t>
+  </si>
+  <si>
+    <t>Zhu, X. W., Sedykh, A., Zhu, H., Liu, S. S., &amp; Tropsha, A. (2013). The use of pseudo-equilibrium constant affords improved QSAR models of human plasma protein binding. Pharmaceutical Research, 30, 1790-1798.</t>
+  </si>
+  <si>
+    <t>HLM</t>
+  </si>
+  <si>
+    <t>TK_HLM_vnnADMET.csv</t>
+  </si>
+  <si>
+    <t>no - just renamed download file from HLM.csv to TK_HLM_vnnADMET.csv</t>
+  </si>
+  <si>
+    <t>BSEPinh</t>
+  </si>
+  <si>
+    <t>TK_BSEPinh_livetox</t>
+  </si>
+  <si>
+    <t>BSEPINH_training.sdf|BSEPINH_test.sdf</t>
+  </si>
+  <si>
+    <t>OATP1B1inh</t>
+  </si>
+  <si>
+    <t>Oatp1b1INH_training.sdf|Oatp1b1INH_test.sdf</t>
+  </si>
+  <si>
+    <t>OATP1B3inh</t>
+  </si>
+  <si>
+    <t>Oatp1b3INH_training.sdf|Oatp1b3INH_test.sdf</t>
+  </si>
+  <si>
+    <t>TOX</t>
+  </si>
+  <si>
+    <t>MRDD</t>
+  </si>
+  <si>
+    <t>DeepPK - https://biosig.lab.uq.edu.au/deeppk/data</t>
+  </si>
+  <si>
+    <t>hERG</t>
+  </si>
+  <si>
+    <t>TOX_hERG_vnnADMET</t>
+  </si>
+  <si>
+    <t>TOX_hERG_vnnADMET.csv</t>
+  </si>
+  <si>
+    <t>no - just renamed download file from hERG.csv to TOX_hERG_vnnADMET.csv</t>
+  </si>
+  <si>
+    <t>IRB</t>
+  </si>
+  <si>
+    <t>CYP1A2inh</t>
+  </si>
+  <si>
+    <t>cyp1a2_inhibitor_test.csv|cyp1a2_inhibitor_train.csv|cyp1a2_inhibitor_val.csv</t>
+  </si>
+  <si>
+    <t>CYP3A4inh</t>
+  </si>
+  <si>
+    <t>cyp3a4_inhibitor_test.csv|cyp3a4_inhibitor_train.csv|cyp3a4_inhibitor_val.csv</t>
+  </si>
+  <si>
+    <t>CYP2C9inh</t>
+  </si>
+  <si>
+    <t>cyp2c9_inhibitor_test.csv|cyp2c9_inhibitor_train.csv|cyp2c9_inhibitor_val.csv</t>
+  </si>
+  <si>
+    <t>CYP2C19inh</t>
+  </si>
+  <si>
+    <t>cyp2c19_inhibitor_test.csv|cypc19_inhibitor_train.csv|cypc19_inhibitor_val.csv</t>
+  </si>
+  <si>
+    <t>CYP2D6inh</t>
+  </si>
+  <si>
+    <t>cyp2d6_inhibitor_test.csv|cyp2d6_inhibitor_train.csv|cyp2d6_inhibitor_val.csv</t>
+  </si>
+  <si>
+    <t>CYP1A2sub</t>
+  </si>
+  <si>
+    <t>CYP3A4sub</t>
+  </si>
+  <si>
+    <t>CYP3A4_CYProduct.csv, CYP3A4_CYPstrate.csv, CYP3A4_Metrabase.csv, CYP3A4_Terri.csv, CYP3A4_Deep-PK.csv</t>
+  </si>
+  <si>
+    <t>['Zaretzki, J., Rydberg, P., Bergeron, C., Bennett, K. P., Olsen, L., &amp; Breneman, C. M. (2012). RS-Predictor models augmented with SMARTCyp reactivities: Robust metabolic regioselectivity predictions for nine CYP isozymes. Journal of Chemical Information and Modeling, 52(6), 1637. https://doi.org/10.1021/CI300009Z.', 'Manga, N., Duffy, J. C., Rowe, P. H., &amp; Cronin, M. T. D. (2005). Structure-Based Methods for the Prediction of the Dominant P450 Enzyme in Human Drug Biotransformation: Consideration of CYP3A4, CYP2C9, CYP2D6. SAR and QSAR in Environmental Research, 16(1–2), 43–61. https://doi.org/10.1080/10629360412331319871.', 'Tian, S., Djoumbou-Feunang, Y., Greiner, R., &amp; Wishart, D. S. (2018). CypReact: A Software Tool for in Silico Reactant Prediction for Human Cytochrome P450 Enzymes. Journal of Chemical Information and Modeling, 58(6), 1282–1291. https://doi.org/10.1021/ACS.JCIM.8B00035/ASSET/IMAGES/MEDIUM/CI-2018-000356_0013.GIF.', 'de Bruyn Kops, C., Friedrich, N.-O., &amp; Kirchmair, J. (2017). Alignment-Based Prediction of Sites of Metabolism. Journal of Chemical Information and Modeling, 57(6), 1258–1264. https://doi.org/10.1021/acs.jcim.7b00165.', 'Tyzack, J. D., Hunt, P. A., &amp; Segall, M. D. (2016). Predicting Regioselectivity and Lability of Cytochrome P450 Metabolism Using Quantum Mechanical Simulations. Journal of Chemical Information and Modeling, 56(11), 2180–2193. https://doi.org/10.1021/acs.jcim.6b00233.']</t>
+  </si>
+  <si>
+    <t>yes - ProtoADME - Enrique</t>
+  </si>
+  <si>
+    <t>CYP2C9sub</t>
+  </si>
+  <si>
+    <t>CYP2C9_CYProduct.csv, CYP2C9_CYPstrate.csv, CYP2C9_Magna.csv, CYP2C9_Terri.csv, CYP2C9_Deep-PK.csv</t>
+  </si>
+  <si>
+    <t>['Zaretzki, J., Rydberg, P., Bergeron, C., Bennett, K. P., Olsen, L., &amp; Breneman, C. M. (2012). RS-Predictor models augmented with SMARTCyp reactivities: Robust metabolic regioselectivity predictions for nine CYP isozymes. Journal of Chemical Information and Modeling, 52(6), 1637. https://doi.org/10.1021/CI300009Z.','Tyzack, J. D., Hunt, P. A., &amp; Segall, M. D. (2016). Predicting Regioselectivity and Lability of Cytochrome P450 Metabolism Using Quantum Mechanical Simulations. Journal of Chemical Information and Modeling, 56(11), 2180–2193. https://doi.org/10.1021/acs.jcim.6b00233.','Tian, S., Djoumbou-Feunang, Y., Greiner, R., &amp; Wishart, D. S. (2018). CypReact: A Software Tool for in Silico Reactant Prediction for Human Cytochrome P450 Enzymes. Journal of Chemical Information and Modeling, 58(6), 1282–1291. https://doi.org/10.1021/ACS.JCIM.8B00035/ASSET/IMAGES/MEDIUM/CI-2018-000356_0013.GIF.', 'de Bruyn Kops, C., Friedrich, N.-O., &amp; Kirchmair, J. (2017). Alignment-Based Prediction of Sites of Metabolism. Journal of Chemical Information and Modeling, 57(6), 1258–1264. https://doi.org/10.1021/acs.jcim.7b00165.', 'Manga, N., Duffy, J. C., Rowe, P. H., &amp; Cronin, M. T. D. (2005). Structure-Based Methods for the Prediction of the Dominant P450 Enzyme in Human Drug Biotransformation: Consideration of CYP3A4, CYP2C9, CYP2D6. SAR and QSAR in Environmental Research, 16(1–2), 43–61. https://doi.org/10.1080/10629360412331319871.', 'Terfloth, L., Bienfait, B., &amp; Gasteiger, J. (2007). Ligand-Based Models for the Isoform Specificity of Cytochrome P450 3A4, 2D6, and 2C9 Substrates. Journal of Chemical Information and Modeling, 47(4), 1688–1701. https://doi.org/10.1021/ci700010t.', 'Tian, S., Cao, X., Greiner, R., Li, C., Guo, A., &amp; Wishart, D. S. (2021). CyProduct: A Software Tool for Accurately Predicting the Byproducts of Human Cytochrome P450 Metabolism. Journal of Chemical Information and Modeling, 61(6), 3128–3140. https://doi.org/10.1021/acs.jcim.1c00144', 'Myung, Y., de Sá, A. G. C., &amp; Ascher, D. B. (2024). Deep-PK: deep learning for small molecule pharmacokinetic and toxicity prediction. Nucleic Acids Research, 52(W1), W469–W475. https://doi.org/10.1093/nar/gkae254.']</t>
+  </si>
+  <si>
+    <t>CYP2C19sub</t>
+  </si>
+  <si>
+    <t>CYP2C19_CYProduct.csv, CYP2C19_CYPstrate.csv, CYP2C19_Metrabase.csv, CYP2C19_Terri.csv, CYP2C19_Deep-PK.csv</t>
+  </si>
+  <si>
+    <t>['Zaretzki, J., Rydberg, P., Bergeron, C., Bennett, K. P., Olsen, L., &amp; Breneman, C. M. (2012). RS-Predictor models augmented with SMARTCyp reactivities: Robust metabolic regioselectivity predictions for nine CYP isozymes. Journal of Chemical Information and Modeling, 52(6), 1637. https://doi.org/10.1021/CI300009Z.','Tyzack, J. D., Hunt, P. A., &amp; Segall, M. D. (2016). Predicting Regioselectivity and Lability of Cytochrome P450 Metabolism Using Quantum Mechanical Simulations. Journal of Chemical Information and Modeling, 56(11), 2180–2193. https://doi.org/10.1021/acs.jcim.6b00233.','Tian, S., Djoumbou-Feunang, Y., Greiner, R., &amp; Wishart, D. S. (2018). CypReact: A Software Tool for in Silico Reactant Prediction for Human Cytochrome P450 Enzymes. Journal of Chemical Information and Modeling, 58(6), 1282–1291. https://doi.org/10.1021/ACS.JCIM.8B00035/ASSET/IMAGES/MEDIUM/CI-2018-000356_0013.GIF.', 'de Bruyn Kops, C., Friedrich, N.-O., &amp; Kirchmair, J. (2017). Alignment-Based Prediction of Sites of Metabolism. Journal of Chemical Information and Modeling, 57(6), 1258–1264. https://doi.org/10.1021/acs.jcim.7b00165.', 'Terfloth, L., Bienfait, B., &amp; Gasteiger, J. (2007). Ligand-Based Models for the Isoform Specificity of Cytochrome P450 3A4, 2D6, and 2C9 Substrates. Journal of Chemical Information and Modeling, 47(4), 1688–1701. https://doi.org/10.1021/ci700010t.', 'Tian, S., Cao, X., Greiner, R., Li, C., Guo, A., &amp; Wishart, D. S. (2021). CyProduct: A Software Tool for Accurately Predicting the Byproducts of Human Cytochrome P450 Metabolism. Journal of Chemical Information and Modeling, 61(6), 3128–3140. https://doi.org/10.1021/acs.jcim.1c00144', 'Myung, Y., de Sá, A. G. C., &amp; Ascher, D. B. (2024). Deep-PK: deep learning for small molecule pharmacokinetic and toxicity prediction. Nucleic Acids Research, 52(W1), W469–W475. https://doi.org/10.1093/nar/gkae254.']</t>
+  </si>
+  <si>
+    <t>CYP2D6sub</t>
+  </si>
+  <si>
+    <t>setids [see info datas sheet]</t>
+  </si>
+  <si>
+    <t>STATUS[*]</t>
+  </si>
+  <si>
+    <t>[*]STATUS</t>
+  </si>
+  <si>
+    <t>[**]DESCRIPTORES</t>
+  </si>
+  <si>
+    <t>ProtoPRED- check</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>[Carmen] local [Lauri][linux]</t>
+  </si>
+  <si>
+    <t>[JL] server [217]</t>
+  </si>
+  <si>
+    <t>ongoing: calculando descriptores</t>
+  </si>
+  <si>
+    <t>ongoing: finetuning</t>
+  </si>
+  <si>
+    <t>processing method 1</t>
+  </si>
+  <si>
+    <t>processing method [***]</t>
+  </si>
+  <si>
+    <t>TK_CYP1A2inh_DeepPK</t>
+  </si>
+  <si>
+    <t>TK_CYP3A4inh_DeepPK</t>
+  </si>
+  <si>
+    <t>CYP1A2</t>
+  </si>
+  <si>
+    <t>CYP2D6</t>
+  </si>
+  <si>
+    <t>ENRIQUE</t>
+  </si>
+  <si>
+    <t>original file - folder datasets_for_modelling</t>
+  </si>
+  <si>
+    <t>modelID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otras bases de datos que no correlacionaban se han eliminado. criterio menos de un 85% de datos en común y ?????
+descrito en archivo correspondiente en carpeta ../Models/[modelID]/Pasos modelo_[modelID].docx
+</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>TK_FUB_Tonnelier ,TK_FUB_Yamazaki ,TK_FUB_Lombardo ,TK_FUB_Riley ,TK_FUB_Votano ,TK_FUB_cran ,TK_FUB_Zhu</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[***]processing method </t>
+  </si>
+  <si>
+    <t>fdamdd_reg_test.csv|fdamdd_reg_train.csv|fdamdd_reg_val.csv</t>
+  </si>
+  <si>
+    <t>if needed, first processed file</t>
+  </si>
+  <si>
+    <t>processing method ontox</t>
+  </si>
+  <si>
+    <t>original files were preprocessed by Mirko</t>
+  </si>
+  <si>
+    <t>TK_CYP2C9inh_DeepPK</t>
+  </si>
+  <si>
+    <t>TK_CYP2C19inh_DeepPK</t>
+  </si>
+  <si>
+    <t>TK_CYP2D6inh_DeepPK</t>
+  </si>
+  <si>
+    <t>DeepPK_cyp1a2_inhibitor_all.csv</t>
+  </si>
+  <si>
+    <t>DeepPK_fdamdd_reg_all.csv</t>
+  </si>
+  <si>
+    <t>DeepPK_cyp3a4_inhibitor_all.csv</t>
+  </si>
+  <si>
+    <t>DeepPK_cyp2c9_inhibitor_all.csv</t>
+  </si>
+  <si>
+    <t>DeepPK_cyp2c19_inhibitor_all.csv</t>
+  </si>
+  <si>
+    <t>DeepPK_cyp2d6_inhibitor_all.csv</t>
+  </si>
+  <si>
+    <t>TK_OATP1B1inh_livertox</t>
+  </si>
+  <si>
+    <t>TK_OATP1B3inh_livertox</t>
+  </si>
+  <si>
+    <t>[if needed]TK_BSEPinh_livertox</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>Livertox_Oatp1b1INH_all.csv</t>
+  </si>
+  <si>
+    <t>Livertox_Oatp1b3INH_all.csv</t>
+  </si>
+  <si>
+    <t>processing method 2 + standard</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>processing method 1 + standard</t>
+  </si>
+  <si>
+    <t>processing method ontox + standard</t>
+  </si>
+  <si>
+    <t>processing method 3 + standard</t>
+  </si>
+  <si>
+    <t>Los datos de train, test y val se juntan con el script ../scripts/DeepPK_IRB.py --&gt; DeepPK_[nombreoriginalarchivo]_all.csv, que se genera en la carpeta input para el proceso standard
+El archivo resultante es el que va al proceso standard</t>
+  </si>
+  <si>
+    <t>Los datos de train y test se juntan con el script ../scripts/Livertox_IRB.py --&gt; Livertox_[nombreoriginalarchivo]_all.csv, que se genera en la carpeta input para el proceso standard
+El archivo resultante es el que va al proceso standard</t>
+  </si>
+  <si>
+    <t>en protopred?</t>
+  </si>
+  <si>
+    <t>local: developed, but not reimputed</t>
+  </si>
+  <si>
+    <t>ongoing: descriptores calculados</t>
+  </si>
+  <si>
+    <t>TK_FU</t>
+  </si>
+  <si>
+    <t>TK_VD</t>
+  </si>
+  <si>
+    <t>TK_logKp</t>
+  </si>
+  <si>
+    <t>TK_BBB</t>
+  </si>
+  <si>
+    <t>TK_pgpsub</t>
+  </si>
+  <si>
+    <t>TK_pgpinh</t>
+  </si>
+  <si>
+    <t>TK_HIA</t>
+  </si>
+  <si>
+    <t>TK_F20</t>
+  </si>
+  <si>
+    <t>TK_F30</t>
+  </si>
+  <si>
+    <t>TK_CYP3A4sub</t>
+  </si>
+  <si>
+    <t>TK_CYP2C9sub</t>
+  </si>
+  <si>
+    <t>TK_CYP2C19sub</t>
+  </si>
+  <si>
+    <t>TK_CYP1A2sub</t>
+  </si>
+  <si>
+    <t>TK_CYP2D6subs</t>
+  </si>
+  <si>
+    <t>TK_CYP1A2inh</t>
+  </si>
+  <si>
+    <t>TK_CYP2D6inh</t>
+  </si>
+  <si>
+    <t>TK_HLM</t>
+  </si>
+  <si>
+    <t>TK_CYP3A4inh</t>
+  </si>
+  <si>
+    <t>TK_CYP2C9inh</t>
+  </si>
+  <si>
+    <t>TK_CYP2C19inh</t>
+  </si>
+  <si>
+    <t>ongoing: dataset preparado para calcular descriptores</t>
+  </si>
+  <si>
+    <t>TOX_Cav12inh_CtoxPred</t>
+  </si>
+  <si>
+    <t>persona datos</t>
+  </si>
+  <si>
+    <t>persona processing</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>CARMEN</t>
+  </si>
+  <si>
+    <t>Enrique-Eva</t>
+  </si>
+  <si>
+    <t>Carmen-Eva</t>
+  </si>
+  <si>
+    <t>data_nav_dev.csv</t>
+  </si>
+  <si>
+    <t>TOX_Nav15inh_CtoxPred</t>
+  </si>
+  <si>
+    <t>TOX_Nav15inh_ChEMBL</t>
+  </si>
+  <si>
+    <t>TOX_Cav12inh_ChEMBL</t>
+  </si>
+  <si>
+    <t>/datasets_for_modelling/intermediate_files</t>
+  </si>
+  <si>
+    <t>if needed, intermediate files folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA </t>
+  </si>
+  <si>
+    <t>TOX_hERGinh_ChEMBL</t>
+  </si>
+  <si>
+    <t>hERG_chEMBL_non_curated.csv</t>
+  </si>
+  <si>
+    <t>Nav_chEMBL_non_curated.csv</t>
+  </si>
+  <si>
+    <t>Cav_chEMBL_non-curated.csv</t>
+  </si>
+  <si>
+    <t>processing method 4 + standard</t>
+  </si>
+  <si>
+    <t>Preprocessing con .../scripts/pre_preprocessed_ONGOING/prepare_preprocessed_and_Hygieia.py output info en corresponding file process_[BATCH]_[date].txt donde BATCH puede ser un modelo conreto o varios
+Output file .../scripts/pre_preprocessed_ONGOING/results/clean_files/[modelID]_final.csv
+Procesado para evaluar outliers con script .../scripts/compare_ONGOING/automatization_script_v2.py. Genera tres archivos: all_merged_[modelID].csv con toda la infomación, filtered_final_data_[modelID].csv un archivo un poco más resumido y [modelID].csv, directo para ir a wotan. En este último se han filtrado los outliers
+ojo, en wotan, se debe ignorar la columna ID_all que queda, pero en este archivo se mantiene para poder hacer un trazado</t>
+  </si>
+  <si>
+    <t>CARMEN explain somewhere searching criteria in pubchem.
+Original downloaded Pubchem file processed by script ../scripts/filter_data_chEMBL_IRB.py --&gt; generated intermediate file ../datasets_for_modelling/intermediate_files/ only by adding an ID column and custom name, and a final file in ../scripts/pre_preprocessed_ONGOING/input_data/[modelID]_firstprocessing.csv [these tags should be indicated in the arguments]</t>
+  </si>
+  <si>
+    <t>TK_ChemBL_Cav12inh_firstprocessing.csv</t>
+  </si>
+  <si>
+    <t>TK_ChemBL_Nav15inh_firstprocessing.csv</t>
+  </si>
+  <si>
+    <t>TK_ChemBL_hERGinh_firstprocessing.csv</t>
+  </si>
+  <si>
+    <t>TOX_Nav15inh_ChEMBL, Nav_CtoxPred</t>
+  </si>
+  <si>
+    <t>TOX_Cav12inh_ChEMBL, TOX_Cav12inh_CtoxPred</t>
+  </si>
+  <si>
+    <t>data_cav_dev.csv</t>
+  </si>
+  <si>
+    <t>processing method 5 + standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original downloaded file processed by script ../scripts/filter_data_CtoxPred_IRB.py --&gt; converts values to binary  classification and saves final file in ../scripts/pre_preprocessed_ONGOING/input_data/[modelID]_firstprocessing.csv </t>
+  </si>
+  <si>
+    <t>TK_CtoxPred_Cav12inh_firstprocessing.csv</t>
+  </si>
+  <si>
+    <t>TK_CtoxPred_Nav15inh_firstprocessing.csv</t>
+  </si>
+  <si>
+    <t>finished [two molecules have disapeared]</t>
+  </si>
+  <si>
+    <t>TOX_hERGinh_DeepPK</t>
+  </si>
+  <si>
+    <t>herg_test.csv|herg_train.csv|herg_val.csv</t>
+  </si>
+  <si>
+    <t>DeepPK_herg_all.csv</t>
+  </si>
+  <si>
+    <t>hERGinh_vnnADMET_original.csv</t>
+  </si>
+  <si>
+    <t>just renamed original downloaded file from hERG.csv to hERGinh_vnnADMET_original.csv</t>
+  </si>
+  <si>
+    <t>ongoing: dataset preparado para calcular descriptores - problemas con algunas moléculas</t>
+  </si>
+  <si>
+    <t>ongoing: dataset original para procesar [step]
+ongoing: dataset preparado para calcular descriptores
+ongoing: dataset preparado para calcular descriptores - problemas con algunas moléculas
+ongoing: calculando descriptores
+ongoing: descriptores calculados
+ongoing: finetuning
+local: developed, but not reimputed
+local: reimputed in linux server
+ProtoPRED: already available in ProtoPRED</t>
+  </si>
+  <si>
+    <t>local: reimputed in linux server</t>
+  </si>
+  <si>
+    <t>[Enrique] server [217]</t>
+  </si>
+  <si>
+    <t>[persona] local [pc][SO]
+[persona] server [wichserver]</t>
+  </si>
+  <si>
+    <t>Eva local [Eva][linux]</t>
+  </si>
+  <si>
+    <t>Eva local [Rita][linux]</t>
+  </si>
+  <si>
+    <t>ongoing: dataset original para procesar [step]</t>
+  </si>
+  <si>
+    <t>TOX_Cav12inh</t>
+  </si>
+  <si>
+    <t>TOX_Nav15inh</t>
+  </si>
+  <si>
+    <t>TOX_hERGinh</t>
+  </si>
+  <si>
+    <t>TK_BSEPinh</t>
+  </si>
+  <si>
+    <t>Carmen local [CarmenNuevo][linux]</t>
+  </si>
+  <si>
+    <t>Carmen local [CarmenViejo][linux]</t>
+  </si>
+  <si>
+    <t>TOX_MRDD</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t>"Tox (por ejemplo MTD?)". Los modelos de ProtoTOX, </t>
     </r>
     <r>
@@ -319,630 +944,10 @@
     </r>
   </si>
   <si>
-    <t>"Actividad hERG, Nav 1.5 y Cav 1.2". ¿Tenemos algo?</t>
-  </si>
-  <si>
-    <t>https://vnnadmet.bhsai.org/vnnadmet/availablemodels.xhtml</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>processed before?</t>
-  </si>
-  <si>
-    <t>TK</t>
-  </si>
-  <si>
-    <t>Psub</t>
-  </si>
-  <si>
-    <t>TK_Psub_Wang</t>
-  </si>
-  <si>
-    <t>pgp_testset.sdf|pgp_trainingset.sdf</t>
-  </si>
-  <si>
-    <t>Wang, Z., Chen, Y., Liang, H., Bender, A., Glen, R. C., &amp; Yan, A. (2011). P-glycoprotein substrate models using support vector machines based on a comprehensive data set. Journal of chemical information and modeling, 51(6), 1447-1456.</t>
-  </si>
-  <si>
-    <t>yes - ONTOX - Eva</t>
-  </si>
-  <si>
-    <t>TK_Psub_Li</t>
-  </si>
-  <si>
-    <t>Pgp_Substrates.csv</t>
-  </si>
-  <si>
-    <t>ADMET evaluation in drug discovery. 13. Development of in silico prediction models for P-glycoprotein substrates. 2014 Dan Li 1 , Lei Chen, Youyong Li, Sheng Tian, Huiyong Sun, Tingjun Hou. 2014 retrieved from VNN-ADMET server</t>
-  </si>
-  <si>
-    <t>TK_Psub_livertox</t>
-  </si>
-  <si>
-    <t>PgpTRANSP_training.sdf|PgpTRANSP_test.sdf</t>
-  </si>
-  <si>
-    <t>Montanari_livetox_transporters -files in Data_Sheet_2 -</t>
-  </si>
-  <si>
-    <t>FU</t>
-  </si>
-  <si>
-    <t>TK_FUB_Tonnelier</t>
-  </si>
-  <si>
-    <t>TK_FUB_Tonnelier.xlsx</t>
-  </si>
-  <si>
-    <t>Tonnelier, A., Coecke, S., &amp; Zaldívar, J. M. (2012). Screening of chemicals for human bioaccumulative potential with a physiologically based toxicokinetic model. Archives of Toxicology, 86, 393-403.</t>
-  </si>
-  <si>
-    <t>TK_FUB_Yamazaki</t>
-  </si>
-  <si>
-    <t>TK_FUB_Yamazaki.xlsx</t>
-  </si>
-  <si>
-    <t>Yamazaki, K., &amp; Kanaoka, M. (2004). Computational prediction of the plasma protein‐binding percent of diverse pharmaceutical compounds. Journal of Pharmaceutical Sciences, 93(6), 1480-1494.</t>
-  </si>
-  <si>
-    <t>TK_FUB_Lombardo</t>
-  </si>
-  <si>
-    <t>TK_FUB_Lombardo.xlsx</t>
-  </si>
-  <si>
-    <t>Lombardo, F., Obach, R. S., Shalaeva, M. Y., &amp; Gao, F. (2002). Prediction of volume of distribution values in humans for neutral and basic drugs using physicochemical measurements and plasma protein binding data. Journal of Medicinal Chemistry, 45(13), 2867-2876.</t>
-  </si>
-  <si>
-    <t>TK_FUB_Riley</t>
-  </si>
-  <si>
-    <t>TK_FUB_Riley.xlsx</t>
-  </si>
-  <si>
-    <t>Riley, R. J., McGinnity, D. F., &amp; Austin, R. P. (2005). A unified model for predicting human hepatic, metabolic clearance from in vitro intrinsic clearance data in hepatocytes and microsomes. Drug Metabolism and Disposition, 33(9), 1304-1311).</t>
-  </si>
-  <si>
-    <t>TK_FUB_Votano</t>
-  </si>
-  <si>
-    <t>TK_FUB_Votano.xlsx</t>
-  </si>
-  <si>
-    <t>Votano, J. R., Parham, M., Hall, L. M., Hall, L. H., Kier, L. B., Oloff, S., &amp; Tropsha, A. (2006). QSAR modeling of human serum protein binding with several modeling techniques utilizing structure− information representation. Journal of Medicinal Chemistry, 49(24), 7169-7181.</t>
-  </si>
-  <si>
-    <t>TK_FUB_cran</t>
-  </si>
-  <si>
-    <t>TK_FUB_cran.xlsx</t>
-  </si>
-  <si>
-    <t>https://cran.r-project.org/web/packages/httk/index.html </t>
-  </si>
-  <si>
-    <t>TK_FUB_Zhu</t>
-  </si>
-  <si>
-    <t>TK_FUB_Zhu.xlsx</t>
-  </si>
-  <si>
-    <t>Zhu, X. W., Sedykh, A., Zhu, H., Liu, S. S., &amp; Tropsha, A. (2013). The use of pseudo-equilibrium constant affords improved QSAR models of human plasma protein binding. Pharmaceutical Research, 30, 1790-1798.</t>
-  </si>
-  <si>
-    <t>HLM</t>
-  </si>
-  <si>
-    <t>TK_HLM_vnnADMET.csv</t>
-  </si>
-  <si>
-    <t>no - just renamed download file from HLM.csv to TK_HLM_vnnADMET.csv</t>
-  </si>
-  <si>
-    <t>BSEPinh</t>
-  </si>
-  <si>
-    <t>TK_BSEPinh_livetox</t>
-  </si>
-  <si>
-    <t>BSEPINH_training.sdf|BSEPINH_test.sdf</t>
-  </si>
-  <si>
-    <t>OATP1B1inh</t>
-  </si>
-  <si>
-    <t>Oatp1b1INH_training.sdf|Oatp1b1INH_test.sdf</t>
-  </si>
-  <si>
-    <t>OATP1B3inh</t>
-  </si>
-  <si>
-    <t>Oatp1b3INH_training.sdf|Oatp1b3INH_test.sdf</t>
-  </si>
-  <si>
-    <t>TOX</t>
-  </si>
-  <si>
-    <t>MRDD</t>
-  </si>
-  <si>
-    <t>DeepPK - https://biosig.lab.uq.edu.au/deeppk/data</t>
-  </si>
-  <si>
-    <t>hERG</t>
-  </si>
-  <si>
-    <t>TOX_hERG_vnnADMET</t>
-  </si>
-  <si>
-    <t>TOX_hERG_vnnADMET.csv</t>
-  </si>
-  <si>
-    <t>no - just renamed download file from hERG.csv to TOX_hERG_vnnADMET.csv</t>
-  </si>
-  <si>
-    <t>IRB</t>
-  </si>
-  <si>
-    <t>CYP1A2inh</t>
-  </si>
-  <si>
-    <t>cyp1a2_inhibitor_test.csv|cyp1a2_inhibitor_train.csv|cyp1a2_inhibitor_val.csv</t>
-  </si>
-  <si>
-    <t>CYP3A4inh</t>
-  </si>
-  <si>
-    <t>cyp3a4_inhibitor_test.csv|cyp3a4_inhibitor_train.csv|cyp3a4_inhibitor_val.csv</t>
-  </si>
-  <si>
-    <t>CYP2C9inh</t>
-  </si>
-  <si>
-    <t>cyp2c9_inhibitor_test.csv|cyp2c9_inhibitor_train.csv|cyp2c9_inhibitor_val.csv</t>
-  </si>
-  <si>
-    <t>CYP2C19inh</t>
-  </si>
-  <si>
-    <t>cyp2c19_inhibitor_test.csv|cypc19_inhibitor_train.csv|cypc19_inhibitor_val.csv</t>
-  </si>
-  <si>
-    <t>CYP2D6inh</t>
-  </si>
-  <si>
-    <t>cyp2d6_inhibitor_test.csv|cyp2d6_inhibitor_train.csv|cyp2d6_inhibitor_val.csv</t>
-  </si>
-  <si>
-    <t>CYP1A2sub</t>
-  </si>
-  <si>
-    <t>CYP3A4sub</t>
-  </si>
-  <si>
-    <t>CYP3A4_CYProduct.csv, CYP3A4_CYPstrate.csv, CYP3A4_Metrabase.csv, CYP3A4_Terri.csv, CYP3A4_Deep-PK.csv</t>
-  </si>
-  <si>
-    <t>['Zaretzki, J., Rydberg, P., Bergeron, C., Bennett, K. P., Olsen, L., &amp; Breneman, C. M. (2012). RS-Predictor models augmented with SMARTCyp reactivities: Robust metabolic regioselectivity predictions for nine CYP isozymes. Journal of Chemical Information and Modeling, 52(6), 1637. https://doi.org/10.1021/CI300009Z.', 'Manga, N., Duffy, J. C., Rowe, P. H., &amp; Cronin, M. T. D. (2005). Structure-Based Methods for the Prediction of the Dominant P450 Enzyme in Human Drug Biotransformation: Consideration of CYP3A4, CYP2C9, CYP2D6. SAR and QSAR in Environmental Research, 16(1–2), 43–61. https://doi.org/10.1080/10629360412331319871.', 'Tian, S., Djoumbou-Feunang, Y., Greiner, R., &amp; Wishart, D. S. (2018). CypReact: A Software Tool for in Silico Reactant Prediction for Human Cytochrome P450 Enzymes. Journal of Chemical Information and Modeling, 58(6), 1282–1291. https://doi.org/10.1021/ACS.JCIM.8B00035/ASSET/IMAGES/MEDIUM/CI-2018-000356_0013.GIF.', 'de Bruyn Kops, C., Friedrich, N.-O., &amp; Kirchmair, J. (2017). Alignment-Based Prediction of Sites of Metabolism. Journal of Chemical Information and Modeling, 57(6), 1258–1264. https://doi.org/10.1021/acs.jcim.7b00165.', 'Tyzack, J. D., Hunt, P. A., &amp; Segall, M. D. (2016). Predicting Regioselectivity and Lability of Cytochrome P450 Metabolism Using Quantum Mechanical Simulations. Journal of Chemical Information and Modeling, 56(11), 2180–2193. https://doi.org/10.1021/acs.jcim.6b00233.']</t>
-  </si>
-  <si>
-    <t>yes - ProtoADME - Enrique</t>
-  </si>
-  <si>
-    <t>CYP2C9sub</t>
-  </si>
-  <si>
-    <t>CYP2C9_CYProduct.csv, CYP2C9_CYPstrate.csv, CYP2C9_Magna.csv, CYP2C9_Terri.csv, CYP2C9_Deep-PK.csv</t>
-  </si>
-  <si>
-    <t>['Zaretzki, J., Rydberg, P., Bergeron, C., Bennett, K. P., Olsen, L., &amp; Breneman, C. M. (2012). RS-Predictor models augmented with SMARTCyp reactivities: Robust metabolic regioselectivity predictions for nine CYP isozymes. Journal of Chemical Information and Modeling, 52(6), 1637. https://doi.org/10.1021/CI300009Z.','Tyzack, J. D., Hunt, P. A., &amp; Segall, M. D. (2016). Predicting Regioselectivity and Lability of Cytochrome P450 Metabolism Using Quantum Mechanical Simulations. Journal of Chemical Information and Modeling, 56(11), 2180–2193. https://doi.org/10.1021/acs.jcim.6b00233.','Tian, S., Djoumbou-Feunang, Y., Greiner, R., &amp; Wishart, D. S. (2018). CypReact: A Software Tool for in Silico Reactant Prediction for Human Cytochrome P450 Enzymes. Journal of Chemical Information and Modeling, 58(6), 1282–1291. https://doi.org/10.1021/ACS.JCIM.8B00035/ASSET/IMAGES/MEDIUM/CI-2018-000356_0013.GIF.', 'de Bruyn Kops, C., Friedrich, N.-O., &amp; Kirchmair, J. (2017). Alignment-Based Prediction of Sites of Metabolism. Journal of Chemical Information and Modeling, 57(6), 1258–1264. https://doi.org/10.1021/acs.jcim.7b00165.', 'Manga, N., Duffy, J. C., Rowe, P. H., &amp; Cronin, M. T. D. (2005). Structure-Based Methods for the Prediction of the Dominant P450 Enzyme in Human Drug Biotransformation: Consideration of CYP3A4, CYP2C9, CYP2D6. SAR and QSAR in Environmental Research, 16(1–2), 43–61. https://doi.org/10.1080/10629360412331319871.', 'Terfloth, L., Bienfait, B., &amp; Gasteiger, J. (2007). Ligand-Based Models for the Isoform Specificity of Cytochrome P450 3A4, 2D6, and 2C9 Substrates. Journal of Chemical Information and Modeling, 47(4), 1688–1701. https://doi.org/10.1021/ci700010t.', 'Tian, S., Cao, X., Greiner, R., Li, C., Guo, A., &amp; Wishart, D. S. (2021). CyProduct: A Software Tool for Accurately Predicting the Byproducts of Human Cytochrome P450 Metabolism. Journal of Chemical Information and Modeling, 61(6), 3128–3140. https://doi.org/10.1021/acs.jcim.1c00144', 'Myung, Y., de Sá, A. G. C., &amp; Ascher, D. B. (2024). Deep-PK: deep learning for small molecule pharmacokinetic and toxicity prediction. Nucleic Acids Research, 52(W1), W469–W475. https://doi.org/10.1093/nar/gkae254.']</t>
-  </si>
-  <si>
-    <t>CYP2C19sub</t>
-  </si>
-  <si>
-    <t>CYP2C19_CYProduct.csv, CYP2C19_CYPstrate.csv, CYP2C19_Metrabase.csv, CYP2C19_Terri.csv, CYP2C19_Deep-PK.csv</t>
-  </si>
-  <si>
-    <t>['Zaretzki, J., Rydberg, P., Bergeron, C., Bennett, K. P., Olsen, L., &amp; Breneman, C. M. (2012). RS-Predictor models augmented with SMARTCyp reactivities: Robust metabolic regioselectivity predictions for nine CYP isozymes. Journal of Chemical Information and Modeling, 52(6), 1637. https://doi.org/10.1021/CI300009Z.','Tyzack, J. D., Hunt, P. A., &amp; Segall, M. D. (2016). Predicting Regioselectivity and Lability of Cytochrome P450 Metabolism Using Quantum Mechanical Simulations. Journal of Chemical Information and Modeling, 56(11), 2180–2193. https://doi.org/10.1021/acs.jcim.6b00233.','Tian, S., Djoumbou-Feunang, Y., Greiner, R., &amp; Wishart, D. S. (2018). CypReact: A Software Tool for in Silico Reactant Prediction for Human Cytochrome P450 Enzymes. Journal of Chemical Information and Modeling, 58(6), 1282–1291. https://doi.org/10.1021/ACS.JCIM.8B00035/ASSET/IMAGES/MEDIUM/CI-2018-000356_0013.GIF.', 'de Bruyn Kops, C., Friedrich, N.-O., &amp; Kirchmair, J. (2017). Alignment-Based Prediction of Sites of Metabolism. Journal of Chemical Information and Modeling, 57(6), 1258–1264. https://doi.org/10.1021/acs.jcim.7b00165.', 'Terfloth, L., Bienfait, B., &amp; Gasteiger, J. (2007). Ligand-Based Models for the Isoform Specificity of Cytochrome P450 3A4, 2D6, and 2C9 Substrates. Journal of Chemical Information and Modeling, 47(4), 1688–1701. https://doi.org/10.1021/ci700010t.', 'Tian, S., Cao, X., Greiner, R., Li, C., Guo, A., &amp; Wishart, D. S. (2021). CyProduct: A Software Tool for Accurately Predicting the Byproducts of Human Cytochrome P450 Metabolism. Journal of Chemical Information and Modeling, 61(6), 3128–3140. https://doi.org/10.1021/acs.jcim.1c00144', 'Myung, Y., de Sá, A. G. C., &amp; Ascher, D. B. (2024). Deep-PK: deep learning for small molecule pharmacokinetic and toxicity prediction. Nucleic Acids Research, 52(W1), W469–W475. https://doi.org/10.1093/nar/gkae254.']</t>
-  </si>
-  <si>
-    <t>CYP2D6sub</t>
-  </si>
-  <si>
-    <t>setids [see info datas sheet]</t>
-  </si>
-  <si>
-    <t>STATUS[*]</t>
-  </si>
-  <si>
-    <t>[*]STATUS</t>
-  </si>
-  <si>
-    <t>[**]DESCRIPTORES</t>
-  </si>
-  <si>
-    <t>ProtoPRED- check</t>
-  </si>
-  <si>
-    <t>Eva</t>
-  </si>
-  <si>
-    <t>[Carmen] local [Lauri][linux]</t>
-  </si>
-  <si>
-    <t>[JL] server [217]</t>
-  </si>
-  <si>
-    <t>ongoing: calculando descriptores</t>
-  </si>
-  <si>
-    <t>ongoing: finetuning</t>
-  </si>
-  <si>
-    <t>processing method 1</t>
-  </si>
-  <si>
-    <t>processing method [***]</t>
-  </si>
-  <si>
-    <t>TK_CYP1A2inh_DeepPK</t>
-  </si>
-  <si>
-    <t>TK_CYP3A4inh_DeepPK</t>
-  </si>
-  <si>
-    <t>CYP1A2</t>
-  </si>
-  <si>
-    <t>CYP2D6</t>
-  </si>
-  <si>
-    <t>ENRIQUE</t>
-  </si>
-  <si>
-    <t>original file - folder datasets_for_modelling</t>
-  </si>
-  <si>
-    <t>modelID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otras bases de datos que no correlacionaban se han eliminado. criterio menos de un 85% de datos en común y ?????
-descrito en archivo correspondiente en carpeta ../Models/[modelID]/Pasos modelo_[modelID].docx
-</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>TK_FUB_Tonnelier ,TK_FUB_Yamazaki ,TK_FUB_Lombardo ,TK_FUB_Riley ,TK_FUB_Votano ,TK_FUB_cran ,TK_FUB_Zhu</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[***]processing method </t>
-  </si>
-  <si>
-    <t>fdamdd_reg_test.csv|fdamdd_reg_train.csv|fdamdd_reg_val.csv</t>
-  </si>
-  <si>
-    <t>if needed, first processed file</t>
-  </si>
-  <si>
-    <t>processing method ontox</t>
-  </si>
-  <si>
-    <t>original files were preprocessed by Mirko</t>
-  </si>
-  <si>
-    <t>TK_CYP2C9inh_DeepPK</t>
-  </si>
-  <si>
-    <t>TK_CYP2C19inh_DeepPK</t>
-  </si>
-  <si>
-    <t>TK_CYP2D6inh_DeepPK</t>
-  </si>
-  <si>
-    <t>DeepPK_cyp1a2_inhibitor_all.csv</t>
-  </si>
-  <si>
-    <t>DeepPK_fdamdd_reg_all.csv</t>
-  </si>
-  <si>
-    <t>DeepPK_cyp3a4_inhibitor_all.csv</t>
-  </si>
-  <si>
-    <t>DeepPK_cyp2c9_inhibitor_all.csv</t>
-  </si>
-  <si>
-    <t>DeepPK_cyp2c19_inhibitor_all.csv</t>
-  </si>
-  <si>
-    <t>DeepPK_cyp2d6_inhibitor_all.csv</t>
-  </si>
-  <si>
-    <t>TK_OATP1B1inh_livertox</t>
-  </si>
-  <si>
-    <t>TK_OATP1B3inh_livertox</t>
-  </si>
-  <si>
-    <t>[if needed]TK_BSEPinh_livertox</t>
-  </si>
-  <si>
-    <t>processed</t>
-  </si>
-  <si>
-    <t>Livertox_Oatp1b1INH_all.csv</t>
-  </si>
-  <si>
-    <t>Livertox_Oatp1b3INH_all.csv</t>
-  </si>
-  <si>
-    <t>processing method 2 + standard</t>
-  </si>
-  <si>
-    <t>standard</t>
-  </si>
-  <si>
-    <t>processing method 1 + standard</t>
-  </si>
-  <si>
-    <t>processing method ontox + standard</t>
-  </si>
-  <si>
-    <t>processing method 3 + standard</t>
-  </si>
-  <si>
-    <t>Los datos de train, test y val se juntan con el script ../scripts/DeepPK_IRB.py --&gt; DeepPK_[nombreoriginalarchivo]_all.csv, que se genera en la carpeta input para el proceso standard
-El archivo resultante es el que va al proceso standard</t>
-  </si>
-  <si>
-    <t>Los datos de train y test se juntan con el script ../scripts/Livertox_IRB.py --&gt; Livertox_[nombreoriginalarchivo]_all.csv, que se genera en la carpeta input para el proceso standard
-El archivo resultante es el que va al proceso standard</t>
-  </si>
-  <si>
-    <t>en protopred?</t>
-  </si>
-  <si>
-    <t>local: developed, but not reimputed</t>
-  </si>
-  <si>
-    <t>ongoing: descriptores calculados</t>
-  </si>
-  <si>
-    <t>TK_FU</t>
-  </si>
-  <si>
-    <t>TK_VD</t>
-  </si>
-  <si>
-    <t>TK_logKp</t>
-  </si>
-  <si>
-    <t>TK_BBB</t>
-  </si>
-  <si>
-    <t>TK_pgpsub</t>
-  </si>
-  <si>
-    <t>TK_pgpinh</t>
-  </si>
-  <si>
-    <t>TK_HIA</t>
-  </si>
-  <si>
-    <t>TK_F20</t>
-  </si>
-  <si>
-    <t>TK_F30</t>
-  </si>
-  <si>
-    <t>TK_CYP3A4sub</t>
-  </si>
-  <si>
-    <t>TK_CYP2C9sub</t>
-  </si>
-  <si>
-    <t>TK_CYP2C19sub</t>
-  </si>
-  <si>
-    <t>TK_CYP1A2sub</t>
-  </si>
-  <si>
-    <t>TK_CYP2D6subs</t>
-  </si>
-  <si>
-    <t>TK_CYP1A2inh</t>
-  </si>
-  <si>
-    <t>TK_CYP2D6inh</t>
-  </si>
-  <si>
-    <t>TK_OATP1B1subs</t>
-  </si>
-  <si>
-    <t>TK_OATP1B3subs</t>
-  </si>
-  <si>
-    <t>TK_HLM</t>
-  </si>
-  <si>
-    <t>TK_CYP3A4inh</t>
-  </si>
-  <si>
-    <t>TK_CYP2C9inh</t>
-  </si>
-  <si>
-    <t>TK_CYP2C19inh</t>
-  </si>
-  <si>
-    <t>ongoing: dataset preparado para calcular descriptores</t>
-  </si>
-  <si>
-    <t>TOX_</t>
-  </si>
-  <si>
-    <t>TOX_Cav12inh_CtoxPred</t>
-  </si>
-  <si>
-    <t>persona datos</t>
-  </si>
-  <si>
-    <t>persona processing</t>
-  </si>
-  <si>
-    <t>Enrique</t>
-  </si>
-  <si>
-    <t>Carmen</t>
-  </si>
-  <si>
-    <t>CARMEN</t>
-  </si>
-  <si>
-    <t>Enrique-Eva</t>
-  </si>
-  <si>
-    <t>Carmen-Eva</t>
-  </si>
-  <si>
-    <t>data_nav_dev.csv</t>
-  </si>
-  <si>
-    <t>TOX_Nav15inh_CtoxPred</t>
-  </si>
-  <si>
-    <t>TOX_Nav15inh_ChEMBL</t>
-  </si>
-  <si>
-    <t>TOX_Cav12inh_ChEMBL</t>
-  </si>
-  <si>
-    <t>/datasets_for_modelling/intermediate_files</t>
-  </si>
-  <si>
-    <t>if needed, intermediate files folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVA </t>
-  </si>
-  <si>
-    <t>TOX_hERGinh_ChEMBL</t>
-  </si>
-  <si>
-    <t>hERG_chEMBL_non_curated.csv</t>
-  </si>
-  <si>
-    <t>Nav_chEMBL_non_curated.csv</t>
-  </si>
-  <si>
-    <t>Cav_chEMBL_non-curated.csv</t>
-  </si>
-  <si>
-    <t>processing method 4 + standard</t>
-  </si>
-  <si>
-    <t>Preprocessing con .../scripts/pre_preprocessed_ONGOING/prepare_preprocessed_and_Hygieia.py output info en corresponding file process_[BATCH]_[date].txt donde BATCH puede ser un modelo conreto o varios
-Output file .../scripts/pre_preprocessed_ONGOING/results/clean_files/[modelID]_final.csv
-Procesado para evaluar outliers con script .../scripts/compare_ONGOING/automatization_script_v2.py. Genera tres archivos: all_merged_[modelID].csv con toda la infomación, filtered_final_data_[modelID].csv un archivo un poco más resumido y [modelID].csv, directo para ir a wotan. En este último se han filtrado los outliers
-ojo, en wotan, se debe ignorar la columna ID_all que queda, pero en este archivo se mantiene para poder hacer un trazado</t>
-  </si>
-  <si>
-    <t>CARMEN explain somewhere searching criteria in pubchem.
-Original downloaded Pubchem file processed by script ../scripts/filter_data_chEMBL_IRB.py --&gt; generated intermediate file ../datasets_for_modelling/intermediate_files/ only by adding an ID column and custom name, and a final file in ../scripts/pre_preprocessed_ONGOING/input_data/[modelID]_firstprocessing.csv [these tags should be indicated in the arguments]</t>
-  </si>
-  <si>
-    <t>TK_ChemBL_Cav12inh_firstprocessing.csv</t>
-  </si>
-  <si>
-    <t>TK_ChemBL_Nav15inh_firstprocessing.csv</t>
-  </si>
-  <si>
-    <t>TK_ChemBL_hERGinh_firstprocessing.csv</t>
-  </si>
-  <si>
-    <t>TOX_Nav15inh_ChEMBL, Nav_CtoxPred</t>
-  </si>
-  <si>
-    <t>TOX_Cav12inh_ChEMBL, TOX_Cav12inh_CtoxPred</t>
-  </si>
-  <si>
-    <t>data_cav_dev.csv</t>
-  </si>
-  <si>
-    <t>processing method 5 + standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Original downloaded file processed by script ../scripts/filter_data_CtoxPred_IRB.py --&gt; converts values to binary  classification and saves final file in ../scripts/pre_preprocessed_ONGOING/input_data/[modelID]_firstprocessing.csv </t>
-  </si>
-  <si>
-    <t>TK_CtoxPred_Cav12inh_firstprocessing.csv</t>
-  </si>
-  <si>
-    <t>TK_CtoxPred_Nav15inh_firstprocessing.csv</t>
-  </si>
-  <si>
-    <t>finished [two molecules have disapeared]</t>
-  </si>
-  <si>
-    <t>TOX_hERGinh_DeepPK</t>
-  </si>
-  <si>
-    <t>herg_test.csv|herg_train.csv|herg_val.csv</t>
-  </si>
-  <si>
-    <t>DeepPK_herg_all.csv</t>
-  </si>
-  <si>
-    <t>hERGinh_vnnADMET_original.csv</t>
-  </si>
-  <si>
-    <t>just renamed original downloaded file from hERG.csv to hERGinh_vnnADMET_original.csv</t>
-  </si>
-  <si>
-    <t>ongoing: dataset preparado para calcular descriptores - problemas con algunas moléculas</t>
-  </si>
-  <si>
-    <t>ongoing: dataset original para procesar [step]
-ongoing: dataset preparado para calcular descriptores
-ongoing: dataset preparado para calcular descriptores - problemas con algunas moléculas
-ongoing: calculando descriptores
-ongoing: descriptores calculados
-ongoing: finetuning
-local: developed, but not reimputed
-local: reimputed in linux server
-ProtoPRED: already available in ProtoPRED</t>
-  </si>
-  <si>
-    <t>local: reimputed in linux server</t>
-  </si>
-  <si>
-    <t>[Enrique] server [217]</t>
-  </si>
-  <si>
-    <t>[persona] local [pc][SO]
-[persona] server [wichserver]</t>
-  </si>
-  <si>
-    <t>Eva local [Eva][linux]</t>
-  </si>
-  <si>
-    <t>Eva local [Rita][linux]</t>
-  </si>
-  <si>
-    <t>ongoing: dataset original para procesar [step]</t>
-  </si>
-  <si>
-    <t>Carmen local [Carmen][linux]</t>
+    <t>TK_OATP1B1inh</t>
+  </si>
+  <si>
+    <t>TK_OATP1B3inh</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1113,8 +1118,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1381,7 +1384,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" t="s">
         <v>150</v>
       </c>
-      <c r="F1" t="s">
-        <v>152</v>
-      </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1441,131 +1444,124 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="28"/>
+        <v>210</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="28"/>
+        <v>211</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="28"/>
+        <v>212</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="28"/>
+        <v>213</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="28"/>
+        <v>214</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="27" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" s="28"/>
+        <v>218</v>
+      </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="27" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D12" s="28"/>
+        <v>219</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -1573,47 +1569,45 @@
         <v>20</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="20" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="28"/>
+        <v>215</v>
+      </c>
       <c r="E14" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="28"/>
+        <v>216</v>
+      </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1621,10 +1615,10 @@
         <v>23</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
         <v>24</v>
@@ -1635,16 +1629,16 @@
         <v>25</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="F17" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1652,27 +1646,30 @@
         <v>26</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="F18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>27</v>
       </c>
+      <c r="C19" s="17" t="s">
+        <v>271</v>
+      </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1685,10 +1682,10 @@
         <v>29</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1696,10 +1693,10 @@
         <v>30</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1707,10 +1704,10 @@
         <v>31</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1718,10 +1715,10 @@
         <v>32</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1729,10 +1726,10 @@
         <v>33</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G25" t="s">
         <v>34</v>
@@ -1743,10 +1740,10 @@
         <v>35</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1754,10 +1751,10 @@
         <v>36</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="23" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -1765,17 +1762,17 @@
         <v>37</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1783,27 +1780,31 @@
         <v>38</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="F30" s="29"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>273</v>
+      </c>
       <c r="G30" s="23" t="s">
         <v>40</v>
       </c>
@@ -1817,8 +1818,11 @@
       <c r="B32" t="s">
         <v>42</v>
       </c>
+      <c r="C32" s="17" t="s">
+        <v>270</v>
+      </c>
       <c r="E32" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G32" t="s">
         <v>43</v>
@@ -1828,12 +1832,15 @@
       <c r="B33" t="s">
         <v>44</v>
       </c>
+      <c r="C33" s="17" t="s">
+        <v>269</v>
+      </c>
       <c r="E33" s="14" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H33" t="s">
         <v>45</v>
@@ -1844,16 +1851,16 @@
         <v>46</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G34" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -1864,12 +1871,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1887,993 +1894,1002 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>78</v>
-      </c>
-      <c r="M2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
         <v>81</v>
       </c>
-      <c r="G3" t="s">
-        <v>83</v>
-      </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
         <v>84</v>
       </c>
-      <c r="G4" t="s">
-        <v>86</v>
-      </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
         <v>112</v>
       </c>
-      <c r="C13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" t="s">
-        <v>114</v>
-      </c>
       <c r="M13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
         <v>122</v>
       </c>
-      <c r="C17" t="s">
+      <c r="M17" t="s">
         <v>123</v>
-      </c>
-      <c r="G17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" t="s">
-        <v>124</v>
-      </c>
-      <c r="M17" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C23" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>232</v>
-      </c>
       <c r="I23" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L23" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" t="s">
         <v>234</v>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="I24" t="s">
-        <v>245</v>
-      </c>
-      <c r="J24" t="s">
-        <v>239</v>
-      </c>
       <c r="K24" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C25" s="11" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I25" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K25" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C26" s="11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" t="s">
         <v>234</v>
       </c>
-      <c r="G26" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="I26" t="s">
-        <v>244</v>
-      </c>
-      <c r="J26" t="s">
-        <v>239</v>
-      </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C27" s="11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E27" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" t="s">
         <v>234</v>
       </c>
-      <c r="G27" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="I27" t="s">
-        <v>243</v>
-      </c>
-      <c r="J27" t="s">
-        <v>239</v>
-      </c>
       <c r="K27" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C28" s="11" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I29" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K29" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D30" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I31" t="s">
+        <v>137</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="M31" t="s">
         <v>139</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="M31" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D34" s="2"/>
       <c r="G34" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C35" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D35" s="2"/>
       <c r="G35" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G42" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2899,77 +2915,77 @@
   <sheetData>
     <row r="2" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2983,24 +2999,24 @@
   <dimension ref="A3:A43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -3008,32 +3024,32 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
@@ -3041,62 +3057,62 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -3121,7 +3137,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -3136,7 +3152,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
@@ -3176,12 +3192,12 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>70</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/tareas - copia.xlsx
+++ b/tareas - copia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
@@ -667,33 +667,7 @@
     <t xml:space="preserve">TOX_Nav15inh_CtoxPred</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hps://github.com/issararab/CtoxPred/tree/main/data  ;  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Liberation Serif;Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://pubs.acs.org/doi/10.1021/acs.jcim.3c01301</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Liberation Serif;Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">hps://github.com/issararab/CtoxPred/tree/main/data  ;  https://pubs.acs.org/doi/10.1021/acs.jcim.3c01301 </t>
   </si>
   <si>
     <t xml:space="preserve">data_cav_dev.csv</t>
@@ -994,7 +968,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,17 +1010,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Liberation Serif;Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Liberation Serif;Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1493,7 +1456,7 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -1990,7 +1953,7 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
@@ -2692,7 +2655,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="6" t="s">
         <v>199</v>
       </c>
@@ -2718,7 +2681,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>181</v>
       </c>
@@ -2753,7 +2716,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="6" t="s">
         <v>213</v>
       </c>
@@ -2779,7 +2742,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="6" t="s">
         <v>217</v>
       </c>
@@ -3014,9 +2977,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G24" r:id="rId1" display="https://www.ebi.ac.uk/chembl/web_components/explore/activities/STATE_ID:EUZX7nG0ni9El0gGC5wVzQ%3D%3D"/>
-    <hyperlink ref="G25" r:id="rId2" display="https://pubs.acs.org/doi/10.1021/acs.jcim.3c01301"/>
-    <hyperlink ref="G26" r:id="rId3" display="https://www.ebi.ac.uk/chembl/web_components/explore/activities/STATE_ID:C2gom0_SelCrQWdGHcF_uQ%3D%3D"/>
+    <hyperlink ref="G24" r:id="rId1" display="chEMBL; https://www.ebi.ac.uk/chembl/web_components/explore/activities/STATE_ID:EUZX7nG0ni9El0gGC5wVzQ%3D%3D "/>
+    <hyperlink ref="G25" r:id="rId2" display="hps://github.com/issararab/CtoxPred/tree/main/data  ;  https://pubs.acs.org/doi/10.1021/acs.jcim.3c01301 "/>
+    <hyperlink ref="G26" r:id="rId3" display="ChEMBL; https://www.ebi.ac.uk/chembl/web_components/explore/activities/STATE_ID:C2gom0_SelCrQWdGHcF_uQ%3D%3D "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/tareas - copia.xlsx
+++ b/tareas - copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proto\Desktop\tothexinxol\IRB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CD41FD-8C1A-4633-A4FE-3A824C6D020A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DDF2E9-0E62-47CA-8A10-A31FA94CA4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="-60" windowWidth="29016" windowHeight="15816" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="legend" sheetId="3" r:id="rId3"/>
     <sheet name="propuesta_inicial" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="284">
   <si>
     <t>TASKS</t>
   </si>
@@ -78,9 +78,6 @@
     <t>local: reimputed in linux server</t>
   </si>
   <si>
-    <t>[Enrique] server [217]</t>
-  </si>
-  <si>
     <t>CYP3A4_NO_outliers</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>TK_OATP1B1inh</t>
   </si>
   <si>
-    <t>Eva local [Eva][linux]</t>
-  </si>
-  <si>
     <t>TK_OATP1B1inh_livertox</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t>TK_OATP1B3inh</t>
   </si>
   <si>
-    <t>Eva local [Rita][linux]</t>
-  </si>
-  <si>
     <t>TK_OATP1B3inh_livertox</t>
   </si>
   <si>
@@ -276,9 +267,6 @@
     <t>TK_FU</t>
   </si>
   <si>
-    <t>Carmen local [CarmenNuevo][linux]</t>
-  </si>
-  <si>
     <t>TK_FUB_Tonnelier ,TK_FUB_Yamazaki ,TK_FUB_Lombardo ,TK_FUB_Riley ,TK_FUB_Votano ,TK_FUB_cran ,TK_FUB_Zhu</t>
   </si>
   <si>
@@ -291,9 +279,6 @@
     <t>finished</t>
   </si>
   <si>
-    <t>[JL] server [217]</t>
-  </si>
-  <si>
     <t>Maximum tolerated dose toxicity (MTD)</t>
   </si>
   <si>
@@ -340,9 +325,6 @@
   </si>
   <si>
     <t>finished [two molecules have disapeared]</t>
-  </si>
-  <si>
-    <t>[Carmen] local [Lauri][linux]</t>
   </si>
   <si>
     <t>TOX_Cav12inh_ChEMBL, TOX_Cav12inh_CtoxPred</t>
@@ -771,10 +753,6 @@
 local: developed, but not reimputed
 local: reimputed in linux server
 ProtoPRED: already available in ProtoPRED</t>
-  </si>
-  <si>
-    <t>[persona] local [pc][SO]
-[persona] server [wichserver]</t>
   </si>
   <si>
     <t xml:space="preserve">[***]processing method </t>
@@ -970,6 +948,31 @@
   </si>
   <si>
     <t>Lauri</t>
+  </si>
+  <si>
+    <t>[persona] local [pc][SO][all/no3D]
+[persona] server [wichserver][all/no3D]</t>
+  </si>
+  <si>
+    <t>Eva local [Eva][linux][no3D]</t>
+  </si>
+  <si>
+    <t>Eva local [Eva][linux][all]</t>
+  </si>
+  <si>
+    <t>Eva local [Rita][linux][all]</t>
+  </si>
+  <si>
+    <t>[Carmen] local [Lauri][linux][all]</t>
+  </si>
+  <si>
+    <t>[JL] server [217][all????]</t>
+  </si>
+  <si>
+    <t>Carmen local [CarmenNuevo][linux][all]</t>
+  </si>
+  <si>
+    <t>[Enrique] server [217][all??]</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1382,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1389,7 +1392,8 @@
     <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="7" width="26" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1410,7 +1414,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1456,245 +1460,245 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="H14" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" t="s">
+        <v>275</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" t="s">
-        <v>282</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>12</v>
@@ -1702,10 +1706,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
@@ -1713,10 +1717,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
@@ -1724,10 +1728,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>12</v>
@@ -1735,24 +1739,24 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>12</v>
@@ -1760,10 +1764,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>12</v>
@@ -1771,112 +1775,117 @@
     </row>
     <row r="28" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>277</v>
       </c>
       <c r="H32" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
+        <v>279</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1909,1002 +1918,1002 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>110</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>111</v>
-      </c>
-      <c r="G1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
         <v>118</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
         <v>119</v>
       </c>
-      <c r="C3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" t="s">
-        <v>125</v>
-      </c>
       <c r="I3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="M5" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="I6" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" t="s">
         <v>171</v>
       </c>
-      <c r="B17" t="s">
-        <v>177</v>
-      </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="L19" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="I23" t="s">
-        <v>203</v>
-      </c>
-      <c r="K23" t="s">
-        <v>204</v>
-      </c>
-      <c r="L23" t="s">
-        <v>205</v>
-      </c>
       <c r="M23" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="I24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s">
         <v>206</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="I24" t="s">
-        <v>209</v>
-      </c>
-      <c r="J24" t="s">
-        <v>210</v>
-      </c>
-      <c r="K24" t="s">
-        <v>211</v>
-      </c>
-      <c r="L24" t="s">
-        <v>212</v>
-      </c>
       <c r="M24" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I26" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J26" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I27" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J27" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K27" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K28" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I29" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D30" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M31" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I32" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M32" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I33" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M33" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2"/>
       <c r="G34" s="19" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2"/>
       <c r="G35" s="19" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
       <c r="L35" s="19" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -2926,7 +2935,7 @@
   <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2938,10 +2947,10 @@
   <sheetData>
     <row r="2" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2949,66 +2958,66 @@
         <v>4</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3029,17 +3038,17 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -3047,32 +3056,32 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
@@ -3080,147 +3089,147 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/tareas - copia.xlsx
+++ b/tareas - copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proto\Desktop\tothexinxol\IRB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DDF2E9-0E62-47CA-8A10-A31FA94CA4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA15DF52-B2D9-4DE5-A92C-C1CAEE3A31B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-60" windowWidth="29016" windowHeight="15816" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="283">
   <si>
     <t>TASKS</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>TK_CYP2C19inh</t>
-  </si>
-  <si>
-    <t>ongoing: dataset original para procesar [step]</t>
   </si>
   <si>
     <t>TK_CYP2C19inh_DeepPK</t>
@@ -1381,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1414,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1460,7 +1457,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="2" t="s">
@@ -1478,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
@@ -1496,7 +1493,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="2" t="s">
@@ -1514,7 +1511,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="2" t="s">
@@ -1532,7 +1529,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="2" t="s">
@@ -1546,11 +1543,11 @@
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
-        <v>31</v>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4" t="s">
@@ -1581,124 +1578,124 @@
         <v>38</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="6" t="s">
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="H14" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
+      <c r="E15" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>278</v>
+      </c>
+      <c r="G18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>279</v>
-      </c>
-      <c r="G18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>12</v>
@@ -1706,10 +1703,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
@@ -1717,10 +1714,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
@@ -1728,10 +1725,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>12</v>
@@ -1739,24 +1736,24 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>12</v>
@@ -1764,10 +1761,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>12</v>
@@ -1775,117 +1772,117 @@
     </row>
     <row r="28" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" t="s">
         <v>89</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" t="s">
-        <v>277</v>
-      </c>
-      <c r="H32" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="E33" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="F33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33" t="s">
         <v>94</v>
-      </c>
-      <c r="I33" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1918,985 +1915,985 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>110</v>
-      </c>
-      <c r="M1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>112</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>113</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>114</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>115</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>116</v>
-      </c>
-      <c r="M2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
         <v>112</v>
       </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
       <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" t="s">
         <v>118</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>119</v>
       </c>
-      <c r="I3" t="s">
-        <v>120</v>
-      </c>
       <c r="M3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
         <v>112</v>
       </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
       <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
         <v>121</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>122</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>123</v>
-      </c>
-      <c r="M4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="K5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="M5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="L6" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="L8" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="L9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="L10" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="I11" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="L11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
         <v>151</v>
       </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>152</v>
       </c>
-      <c r="I12" t="s">
+      <c r="M12" t="s">
         <v>153</v>
-      </c>
-      <c r="M12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
         <v>155</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" t="s">
         <v>156</v>
       </c>
-      <c r="G13" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13" t="s">
-        <v>157</v>
-      </c>
       <c r="M13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="M14" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="L15" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="M16" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
         <v>171</v>
       </c>
-      <c r="C17" t="s">
+      <c r="G17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" t="s">
         <v>172</v>
       </c>
-      <c r="G17" t="s">
-        <v>152</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="M17" t="s">
         <v>173</v>
-      </c>
-      <c r="M17" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="L18" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="L19" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="F20" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="L20" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="L21" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="L22" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="G23" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="I23" t="s">
         <v>196</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>197</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>198</v>
       </c>
-      <c r="L23" t="s">
-        <v>199</v>
-      </c>
       <c r="M23" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G24" s="18" t="s">
+      <c r="I24" t="s">
         <v>202</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>203</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>204</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>205</v>
       </c>
-      <c r="L24" t="s">
-        <v>206</v>
-      </c>
       <c r="M24" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G25" s="18" t="s">
+      <c r="I25" t="s">
         <v>208</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>209</v>
       </c>
-      <c r="K25" t="s">
-        <v>210</v>
-      </c>
       <c r="L25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G26" s="18" t="s">
+      <c r="I26" t="s">
         <v>212</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
         <v>213</v>
       </c>
-      <c r="J26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K26" t="s">
-        <v>214</v>
-      </c>
       <c r="L26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G27" s="18" t="s">
+      <c r="I27" t="s">
         <v>216</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" t="s">
         <v>217</v>
       </c>
-      <c r="J27" t="s">
-        <v>204</v>
-      </c>
-      <c r="K27" t="s">
-        <v>218</v>
-      </c>
       <c r="L27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="K28" t="s">
         <v>220</v>
       </c>
-      <c r="K28" t="s">
-        <v>221</v>
-      </c>
       <c r="L28" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" t="s">
         <v>222</v>
       </c>
-      <c r="K29" t="s">
-        <v>222</v>
-      </c>
-      <c r="L29" t="s">
-        <v>223</v>
-      </c>
       <c r="M29" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D30" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="G30" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="G31" t="s">
+        <v>224</v>
+      </c>
+      <c r="I31" t="s">
         <v>225</v>
       </c>
-      <c r="I31" t="s">
+      <c r="L31" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="M31" t="s">
         <v>227</v>
-      </c>
-      <c r="M31" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
       </c>
       <c r="G32" t="s">
+        <v>229</v>
+      </c>
+      <c r="I32" t="s">
         <v>230</v>
       </c>
-      <c r="I32" t="s">
-        <v>231</v>
-      </c>
       <c r="L32" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="M32" t="s">
         <v>227</v>
-      </c>
-      <c r="M32" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
       </c>
       <c r="G33" t="s">
+        <v>232</v>
+      </c>
+      <c r="I33" t="s">
         <v>233</v>
       </c>
-      <c r="I33" t="s">
-        <v>234</v>
-      </c>
       <c r="L33" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="M33" t="s">
         <v>227</v>
-      </c>
-      <c r="M33" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="2"/>
       <c r="G34" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -2905,15 +2902,15 @@
       </c>
       <c r="D35" s="2"/>
       <c r="G35" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
       <c r="L35" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -2947,10 +2944,10 @@
   <sheetData>
     <row r="2" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>237</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2958,66 +2955,66 @@
         <v>4</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" t="s">
         <v>239</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="21" t="s">
         <v>240</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>242</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" t="s">
         <v>245</v>
-      </c>
-      <c r="C7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3038,17 +3035,17 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -3056,32 +3053,32 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
@@ -3089,147 +3086,147 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/tareas - copia.xlsx
+++ b/tareas - copia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proto\Desktop\tothexinxol\IRB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrique\Documents\GitHub\IRB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA15DF52-B2D9-4DE5-A92C-C1CAEE3A31B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775B7187-89B9-4CB2-84B4-09AA943C0B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="315" windowWidth="21600" windowHeight="11235" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="282">
   <si>
     <t>TASKS</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>TK_CYP3A4inh</t>
-  </si>
-  <si>
-    <t>ongoing: finetuning</t>
   </si>
   <si>
     <t>TK_CYP3A4inh_DeepPK</t>
@@ -1379,22 +1376,22 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.77734375" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="40.77734375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1420,12 +1417,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1433,12 +1430,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1446,7 +1443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -1457,14 +1454,14 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1475,14 +1472,14 @@
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -1493,14 +1490,14 @@
         <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -1511,14 +1508,14 @@
         <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1529,14 +1526,14 @@
         <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -1544,345 +1541,345 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="6" t="s">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="H14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>277</v>
       </c>
-      <c r="G17" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="G18" t="s">
+        <v>273</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>278</v>
-      </c>
-      <c r="G18" t="s">
-        <v>274</v>
-      </c>
-      <c r="H18" s="4" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>77</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H28" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="C30" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>83</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="11" t="s">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>275</v>
+      </c>
+      <c r="H32" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" t="s">
-        <v>276</v>
-      </c>
-      <c r="H32" t="s">
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="E33" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="F33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" t="s">
         <v>93</v>
       </c>
-      <c r="I33" t="s">
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1900,1020 +1897,1020 @@
       <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="4" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="58" customWidth="1"/>
-    <col min="9" max="9" width="47.21875" customWidth="1"/>
+    <col min="9" max="9" width="47.28515625" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="11" max="11" width="47.21875" customWidth="1"/>
-    <col min="12" max="12" width="36.109375" customWidth="1"/>
-    <col min="13" max="13" width="28.33203125" customWidth="1"/>
+    <col min="11" max="11" width="47.28515625" customWidth="1"/>
+    <col min="12" max="12" width="36.140625" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>105</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>106</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>107</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>108</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>109</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>112</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>113</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>114</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>115</v>
       </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
         <v>111</v>
       </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="C4" t="s">
         <v>119</v>
       </c>
-      <c r="M3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>120</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>121</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>122</v>
       </c>
-      <c r="M4" t="s">
+    </row>
+    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="K6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="M6" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="G8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="G10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="G11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" t="s">
+        <v>151</v>
+      </c>
+      <c r="M12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" t="s">
+        <v>155</v>
+      </c>
+      <c r="M13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="G14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="G16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="G18" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="G19" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="G20" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="G21" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s">
+        <v>197</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I24" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="I26" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="I27" t="s">
+        <v>215</v>
+      </c>
+      <c r="J27" t="s">
+        <v>202</v>
+      </c>
+      <c r="K27" t="s">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s">
+        <v>204</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" t="s">
         <v>150</v>
       </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>151</v>
-      </c>
-      <c r="I12" t="s">
-        <v>152</v>
-      </c>
-      <c r="M12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" t="s">
-        <v>156</v>
-      </c>
-      <c r="M13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="I29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" t="s">
-        <v>171</v>
-      </c>
-      <c r="G17" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" t="s">
-        <v>172</v>
-      </c>
-      <c r="M17" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C23" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="I23" t="s">
-        <v>196</v>
-      </c>
-      <c r="K23" t="s">
-        <v>197</v>
-      </c>
-      <c r="L23" t="s">
-        <v>198</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="I24" t="s">
-        <v>202</v>
-      </c>
-      <c r="J24" t="s">
-        <v>203</v>
-      </c>
-      <c r="K24" t="s">
-        <v>204</v>
-      </c>
-      <c r="L24" t="s">
-        <v>205</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C25" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="I25" t="s">
-        <v>208</v>
-      </c>
-      <c r="K25" t="s">
-        <v>209</v>
-      </c>
-      <c r="L25" t="s">
-        <v>198</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C26" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="I26" t="s">
-        <v>212</v>
-      </c>
-      <c r="J26" t="s">
-        <v>203</v>
-      </c>
-      <c r="K26" t="s">
-        <v>213</v>
-      </c>
-      <c r="L26" t="s">
-        <v>205</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C27" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="I27" t="s">
-        <v>216</v>
-      </c>
-      <c r="J27" t="s">
-        <v>203</v>
-      </c>
-      <c r="K27" t="s">
-        <v>217</v>
-      </c>
-      <c r="L27" t="s">
-        <v>205</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C28" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="K28" t="s">
-        <v>220</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D29" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G29" t="s">
-        <v>151</v>
-      </c>
-      <c r="I29" t="s">
-        <v>221</v>
-      </c>
-      <c r="K29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="B31" t="s">
         <v>222</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D30" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" t="s">
-        <v>223</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="G31" t="s">
+        <v>223</v>
+      </c>
+      <c r="I31" t="s">
         <v>224</v>
       </c>
-      <c r="I31" t="s">
+      <c r="L31" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="M31" t="s">
         <v>226</v>
       </c>
-      <c r="M31" t="s">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32" t="s">
-        <v>228</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
       </c>
       <c r="G32" t="s">
+        <v>228</v>
+      </c>
+      <c r="I32" t="s">
         <v>229</v>
       </c>
-      <c r="I32" t="s">
+      <c r="L32" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="M32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" t="s">
         <v>230</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M32" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" t="s">
-        <v>231</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
       </c>
       <c r="G33" t="s">
+        <v>231</v>
+      </c>
+      <c r="I33" t="s">
         <v>232</v>
       </c>
-      <c r="I33" t="s">
+      <c r="L33" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="M33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" t="s">
         <v>233</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="M33" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B34" t="s">
-        <v>234</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="2"/>
       <c r="G34" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="2"/>
       <c r="G35" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
       <c r="L35" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F37" s="4"/>
     </row>
   </sheetData>
@@ -2935,86 +2932,86 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="62.77734375" customWidth="1"/>
-    <col min="3" max="3" width="101.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" customWidth="1"/>
+    <col min="3" max="3" width="101.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" t="s">
         <v>238</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="21" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C5" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="22" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="21" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>244</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="21" t="s">
+    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="21" t="s">
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3031,202 +3028,202 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/tareas - copia.xlsx
+++ b/tareas - copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrique\Documents\GitHub\IRB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775B7187-89B9-4CB2-84B4-09AA943C0B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A767F8-4D01-40AB-81A7-46AEDE5C8E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="315" windowWidth="21600" windowHeight="11235" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="281">
   <si>
     <t>TASKS</t>
   </si>
@@ -547,9 +547,6 @@
   </si>
   <si>
     <t>no - just renamed download file from hERG.csv to TOX_hERG_vnnADMET.csv</t>
-  </si>
-  <si>
-    <t>IRB</t>
   </si>
   <si>
     <t>CYP1A2inh</t>
@@ -1375,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1408,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1454,7 +1451,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="2" t="s">
@@ -1472,7 +1469,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
@@ -1490,7 +1487,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="2" t="s">
@@ -1508,7 +1505,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="2" t="s">
@@ -1526,7 +1523,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="2" t="s">
@@ -1544,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4" t="s">
@@ -1607,7 +1604,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="4" t="s">
@@ -1639,7 +1636,7 @@
         <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G17" t="s">
         <v>125</v>
@@ -1659,10 +1656,10 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>55</v>
@@ -1779,10 +1776,10 @@
         <v>45</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>77</v>
@@ -1800,7 +1797,7 @@
         <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1837,7 +1834,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H32" t="s">
         <v>88</v>
@@ -1854,7 +1851,7 @@
         <v>91</v>
       </c>
       <c r="F33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" t="s">
@@ -1875,7 +1872,7 @@
         <v>96</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" t="s">
@@ -1892,9 +1889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,19 +2417,19 @@
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>126</v>
@@ -2441,10 +2438,10 @@
         <v>165</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>168</v>
@@ -2455,19 +2452,19 @@
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>126</v>
@@ -2476,10 +2473,10 @@
         <v>165</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>168</v>
@@ -2490,19 +2487,19 @@
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>126</v>
@@ -2511,10 +2508,10 @@
         <v>165</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>168</v>
@@ -2525,19 +2522,19 @@
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>126</v>
@@ -2546,10 +2543,10 @@
         <v>165</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>168</v>
@@ -2560,19 +2557,19 @@
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>126</v>
@@ -2581,10 +2578,10 @@
         <v>165</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>168</v>
@@ -2595,60 +2592,54 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="G23" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="I23" t="s">
         <v>194</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>195</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>196</v>
-      </c>
-      <c r="L23" t="s">
-        <v>197</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G24" s="18" t="s">
+      <c r="I24" t="s">
         <v>200</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>201</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>202</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>203</v>
-      </c>
-      <c r="L24" t="s">
-        <v>204</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>122</v>
@@ -2656,25 +2647,25 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G25" s="18" t="s">
+      <c r="I25" t="s">
         <v>206</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>207</v>
       </c>
-      <c r="K25" t="s">
-        <v>208</v>
-      </c>
       <c r="L25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>122</v>
@@ -2682,28 +2673,28 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G26" s="18" t="s">
+      <c r="I26" t="s">
         <v>210</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
         <v>211</v>
       </c>
-      <c r="J26" t="s">
-        <v>202</v>
-      </c>
-      <c r="K26" t="s">
-        <v>212</v>
-      </c>
       <c r="L26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>122</v>
@@ -2711,28 +2702,28 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G27" s="18" t="s">
+      <c r="I27" t="s">
         <v>214</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" t="s">
         <v>215</v>
       </c>
-      <c r="J27" t="s">
-        <v>202</v>
-      </c>
-      <c r="K27" t="s">
-        <v>216</v>
-      </c>
       <c r="L27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>122</v>
@@ -2740,22 +2731,22 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>165</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" t="s">
         <v>218</v>
-      </c>
-      <c r="K28" t="s">
-        <v>219</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>168</v>
@@ -2769,19 +2760,19 @@
         <v>125</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G29" t="s">
         <v>150</v>
       </c>
       <c r="I29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" t="s">
         <v>220</v>
-      </c>
-      <c r="K29" t="s">
-        <v>220</v>
-      </c>
-      <c r="L29" t="s">
-        <v>221</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>122</v>
@@ -2802,112 +2793,118 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>173</v>
+      <c r="A31" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="G31" t="s">
+        <v>222</v>
+      </c>
+      <c r="I31" t="s">
         <v>223</v>
       </c>
-      <c r="I31" t="s">
+      <c r="L31" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="M31" t="s">
         <v>225</v>
       </c>
-      <c r="M31" t="s">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>173</v>
-      </c>
-      <c r="B32" t="s">
-        <v>227</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
       </c>
       <c r="G32" t="s">
+        <v>227</v>
+      </c>
+      <c r="I32" t="s">
         <v>228</v>
       </c>
-      <c r="I32" t="s">
+      <c r="L32" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="M32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
         <v>229</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="M32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>173</v>
-      </c>
-      <c r="B33" t="s">
-        <v>230</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
       </c>
       <c r="G33" t="s">
+        <v>230</v>
+      </c>
+      <c r="I33" t="s">
         <v>231</v>
       </c>
-      <c r="I33" t="s">
-        <v>232</v>
-      </c>
       <c r="L33" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="M33" t="s">
         <v>225</v>
       </c>
-      <c r="M33" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>173</v>
+      <c r="A34" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="2"/>
       <c r="G34" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
+        <v>232</v>
+      </c>
       <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="2"/>
       <c r="G35" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
       <c r="L35" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2941,10 +2938,10 @@
   <sheetData>
     <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>235</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2952,26 +2949,26 @@
         <v>4</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" t="s">
         <v>237</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="21" t="s">
         <v>238</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>240</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2979,15 +2976,15 @@
         <v>168</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" t="s">
         <v>243</v>
-      </c>
-      <c r="C7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2995,23 +2992,23 @@
         <v>159</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3032,17 +3029,17 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -3050,32 +3047,32 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -3083,62 +3080,62 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -3163,7 +3160,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -3178,7 +3175,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
@@ -3218,12 +3215,12 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
